--- a/开发共享文档/音效需求.xlsx
+++ b/开发共享文档/音效需求.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13367\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interned-Necromancer\Interned_Necromancer\开发共享文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C385D41-1DE9-45A2-A0CB-1DFF24BE7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27F957D-24E4-4C16-B141-4787E48CB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>音效目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,7 +155,7 @@
       <t>1.音效风格相对地牢和卡通风，尽量不使用过于明朗的音色，相对低沉短促为佳
 2.并非所有音效都必须完成，如果某个音效找不到合适的素材可以复用其它部分的音效，或直接不加，但不要
    硬加不合适的音效，宁缺毋滥
-3.音效片段触发时机已写好，只需将音效文件放在游戏Asset目录下的Audio文件夹内，右键其并选择选项卡中     的"SaveSoundEffect"选项即可，注意</t>
+3.音效片段触发时机已写好，只需将音效文件放在游戏Asset目录下的Audio文件夹内，右键打开选项卡其并选择选项卡中的"SaveSoundEffect"选项即可，注意</t>
     </r>
     <r>
       <rPr>
@@ -178,8 +178,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-4.如有其它疑问及时提出喵</t>
+4.关于上述步骤有疑问请及时提出喵</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关(触碰紫色水晶并使其碎裂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"EndLevel"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,13 +243,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,98 +531,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="25.58203125" customWidth="1"/>
     <col min="2" max="2" width="17.4140625" customWidth="1"/>
     <col min="3" max="3" width="11.58203125" customWidth="1"/>
     <col min="4" max="4" width="44.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -733,6 +741,14 @@
       </c>
       <c r="B20" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/开发共享文档/音效需求.xlsx
+++ b/开发共享文档/音效需求.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interned-Necromancer\Interned_Necromancer\开发共享文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Projects\Interned_Necromancer\开发共享文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27F957D-24E4-4C16-B141-4787E48CB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE7E593-1195-4F21-8DE7-933998AFE844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>音效目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -680,6 +680,9 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -699,6 +702,9 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -711,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -719,15 +725,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -735,7 +744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -743,7 +752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>

--- a/开发共享文档/音效需求.xlsx
+++ b/开发共享文档/音效需求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Projects\Interned_Necromancer\开发共享文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE7E593-1195-4F21-8DE7-933998AFE844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D97FE7-3E92-487A-8255-E0FAA6F431DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="1840" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>音效目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -656,6 +656,9 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -694,6 +697,9 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -743,6 +749,9 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -751,6 +760,9 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -758,6 +770,9 @@
       </c>
       <c r="B21" t="s">
         <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
